--- a/khata.xlsx
+++ b/khata.xlsx
@@ -5,21 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aman\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aman\Documents\GitHub\RadhaConstructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B272900-393B-48FE-8278-3CA0B4DC708A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B488AB3-A199-430E-8446-DE20DBF5912D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C0A841DC-1415-4483-9525-044767873B6B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="6" xr2:uid="{C0A841DC-1415-4483-9525-044767873B6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Khata" sheetId="1" r:id="rId1"/>
     <sheet name="Shailendra Electrician" sheetId="2" r:id="rId2"/>
     <sheet name="Shailendra Electrician(3x1000)" sheetId="6" r:id="rId3"/>
-    <sheet name="Shailendra (1736 sqr)" sheetId="7" r:id="rId4"/>
-    <sheet name="Ashok Mishra(new site)" sheetId="3" r:id="rId5"/>
-    <sheet name="Vishnu Yadav(1200 x 2 )" sheetId="4" r:id="rId6"/>
-    <sheet name="Vishnu Yadav(1000 x 2)" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="11" r:id="rId4"/>
+    <sheet name="Shailendra (1736 sqr)" sheetId="7" r:id="rId5"/>
+    <sheet name="Ashok Mishra(new site)" sheetId="3" r:id="rId6"/>
+    <sheet name="Vishnu Yadav(1200 x 2 )" sheetId="4" r:id="rId7"/>
+    <sheet name="Vishnu Yadav(1000 x 2)" sheetId="5" r:id="rId8"/>
+    <sheet name="Ram Saran Plumber (1000x2)" sheetId="8" r:id="rId9"/>
+    <sheet name="Tota Ram Plumber" sheetId="9" r:id="rId10"/>
+    <sheet name="Vishnu Yadav (1736 sqft)" sheetId="10" r:id="rId11"/>
+    <sheet name="HoriLal(Thekedar)" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -208,6 +213,39 @@
   </si>
   <si>
     <t>By Ankit Singh</t>
+  </si>
+  <si>
+    <t>Ram Saran Plumber (1000x2)</t>
+  </si>
+  <si>
+    <t>Tota Ram Plumber (1000x2)</t>
+  </si>
+  <si>
+    <t>Vishnu Yadav (1736 sqft) 868 x 2 unit</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>to munshi</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>75664 AXIS</t>
+  </si>
+  <si>
+    <t>JCB</t>
+  </si>
+  <si>
+    <t>HoriLal(Thekedar) new side</t>
+  </si>
+  <si>
+    <t>AXIS 75643</t>
   </si>
 </sst>
 </file>
@@ -399,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -420,7 +458,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -434,14 +471,66 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -450,26 +539,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -787,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2AA894-672E-4A87-B6B5-A346CBF1433B}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A3" zoomScale="111" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,33 +881,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
@@ -862,19 +940,19 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="24">
+      <c r="A6" s="23">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>3</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="29">
         <v>12000</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <f>PRODUCT(C6:D6)</f>
         <v>36000</v>
       </c>
@@ -882,20 +960,20 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="24">
+      <c r="A7" s="23">
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>10</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="29">
         <v>1400</v>
       </c>
-      <c r="E7" s="20">
-        <f t="shared" ref="E7:E12" si="0">PRODUCT(C7:D7)</f>
+      <c r="E7" s="19">
+        <f t="shared" ref="E7:E8" si="0">PRODUCT(C7:D7)</f>
         <v>14000</v>
       </c>
       <c r="F7" s="7"/>
@@ -904,19 +982,19 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="24">
+      <c r="A8" s="23">
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>1</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="29">
         <v>500</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
@@ -924,20 +1002,20 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="20"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="30">
+      <c r="C10" s="19"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="28">
         <f ca="1">SUM(E6:E12)</f>
         <v>50500</v>
       </c>
@@ -945,24 +1023,16 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
+      <c r="A11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="39"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
+      <c r="A12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
@@ -986,7 +1056,6 @@
       <c r="G13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
@@ -1004,14 +1073,13 @@
       <c r="E14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <v>5000</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <f ca="1">E10-F14</f>
         <v>45500</v>
       </c>
-      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
@@ -1023,14 +1091,13 @@
       <c r="E15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="19">
         <v>8000</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="19">
         <f ca="1">G14-F15</f>
         <v>37500</v>
       </c>
-      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
@@ -1042,10 +1109,10 @@
       <c r="E16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="19">
         <v>3000</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="19">
         <f ca="1">G15-F16</f>
         <v>34500</v>
       </c>
@@ -1061,10 +1128,10 @@
       <c r="E17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <v>5000</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <f ca="1">G16-F17</f>
         <v>29500</v>
       </c>
@@ -1079,10 +1146,10 @@
       <c r="E18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="19">
         <v>5000</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <f t="shared" ref="G18:G19" ca="1" si="1">G17-F18</f>
         <v>24500</v>
       </c>
@@ -1097,10 +1164,10 @@
       <c r="E19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="19">
         <v>2000</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="27">
         <f t="shared" ca="1" si="1"/>
         <v>22500</v>
       </c>
@@ -1111,8 +1178,8 @@
       <c r="C20" s="7"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
@@ -1122,11 +1189,11 @@
       <c r="E21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="28">
         <f>SUM(F14:F19)</f>
         <v>28000</v>
       </c>
-      <c r="G21" s="20"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
@@ -1134,8 +1201,8 @@
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H27" s="6"/>
@@ -1191,6 +1258,1931 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B037B6-8D4D-41C0-B7B7-4ECA7199E88D}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>45193</v>
+      </c>
+      <c r="D6" s="19">
+        <v>5000</v>
+      </c>
+      <c r="E6" s="21">
+        <f>SUM(E5,D6)</f>
+        <v>5000</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12">
+        <v>45197</v>
+      </c>
+      <c r="D7" s="19">
+        <v>25000</v>
+      </c>
+      <c r="E7" s="25">
+        <f t="shared" ref="E7:E12" si="0">SUM(E6,D7)</f>
+        <v>30000</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="22">
+        <f>SUM(D6:D7)</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="21">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12">
+        <v>45205</v>
+      </c>
+      <c r="D9" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="12">
+        <v>45215</v>
+      </c>
+      <c r="D10" s="19">
+        <v>9000</v>
+      </c>
+      <c r="E10" s="25">
+        <f t="shared" si="0"/>
+        <v>49000</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="22">
+        <f>SUM(D9:D10)</f>
+        <v>19000</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="21">
+        <f t="shared" si="0"/>
+        <v>49000</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="41"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12">
+        <v>45241</v>
+      </c>
+      <c r="D12" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="25">
+        <f t="shared" si="0"/>
+        <v>59000</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="22">
+        <f>SUM(D12)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="25">
+        <f>SUM(I7,I10,I12)</f>
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="42"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="32"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C16" s="42"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="32"/>
+      <c r="G16" s="38"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="42"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D17" s="39"/>
+      <c r="E17" s="32"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="32"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="42"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="32"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C20" s="42"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="32"/>
+      <c r="G20" s="38"/>
+      <c r="I20" s="32"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D21" s="39"/>
+      <c r="E21" s="32"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D22" s="39"/>
+      <c r="E22" s="32"/>
+      <c r="G22" s="38"/>
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D23" s="39"/>
+      <c r="E23" s="32"/>
+      <c r="G23" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F51067E-B8F4-401A-9637-1263A94563F1}">
+  <dimension ref="A1:K36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="121" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="38"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="38"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1</v>
+      </c>
+      <c r="C6" s="48">
+        <v>45078</v>
+      </c>
+      <c r="D6" s="46">
+        <v>5000</v>
+      </c>
+      <c r="E6" s="52">
+        <f>SUM(E5,D6)</f>
+        <v>5000</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="38"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23">
+        <v>2</v>
+      </c>
+      <c r="C7" s="48">
+        <v>45082</v>
+      </c>
+      <c r="D7" s="46">
+        <v>15000</v>
+      </c>
+      <c r="E7" s="52">
+        <f t="shared" ref="E7:E34" si="0">SUM(E6,D7)</f>
+        <v>20000</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="38"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23">
+        <v>3</v>
+      </c>
+      <c r="C8" s="48">
+        <v>45085</v>
+      </c>
+      <c r="D8" s="46">
+        <v>15000</v>
+      </c>
+      <c r="E8" s="52">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="38"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23">
+        <v>4</v>
+      </c>
+      <c r="C9" s="48">
+        <v>45090</v>
+      </c>
+      <c r="D9" s="46">
+        <v>15000</v>
+      </c>
+      <c r="E9" s="52">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="38"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23">
+        <v>5</v>
+      </c>
+      <c r="C10" s="48">
+        <v>45094</v>
+      </c>
+      <c r="D10" s="46">
+        <v>10000</v>
+      </c>
+      <c r="E10" s="52">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23">
+        <v>6</v>
+      </c>
+      <c r="C11" s="48">
+        <v>45094</v>
+      </c>
+      <c r="D11" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E11" s="52">
+        <f t="shared" si="0"/>
+        <v>63000</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="38"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23">
+        <v>7</v>
+      </c>
+      <c r="C12" s="48">
+        <v>45095</v>
+      </c>
+      <c r="D12" s="46">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="52">
+        <f t="shared" si="0"/>
+        <v>73000</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="38"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23">
+        <v>8</v>
+      </c>
+      <c r="C13" s="48">
+        <v>45097</v>
+      </c>
+      <c r="D13" s="46">
+        <v>10000</v>
+      </c>
+      <c r="E13" s="52">
+        <f t="shared" si="0"/>
+        <v>83000</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="38"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23">
+        <v>9</v>
+      </c>
+      <c r="C14" s="48">
+        <v>45098</v>
+      </c>
+      <c r="D14" s="46">
+        <v>20000</v>
+      </c>
+      <c r="E14" s="52">
+        <f t="shared" si="0"/>
+        <v>103000</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="23">
+        <v>75634</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="38"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23">
+        <v>10</v>
+      </c>
+      <c r="C15" s="48">
+        <v>45101</v>
+      </c>
+      <c r="D15" s="46">
+        <v>5000</v>
+      </c>
+      <c r="E15" s="52">
+        <f t="shared" si="0"/>
+        <v>108000</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="38"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23">
+        <v>11</v>
+      </c>
+      <c r="C16" s="48">
+        <v>45103</v>
+      </c>
+      <c r="D16" s="46">
+        <v>20000</v>
+      </c>
+      <c r="E16" s="51">
+        <f t="shared" si="0"/>
+        <v>128000</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="49">
+        <f>SUM(D6:D16)</f>
+        <v>128000</v>
+      </c>
+      <c r="J16" s="38"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="52">
+        <f t="shared" si="0"/>
+        <v>128000</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="38"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="23">
+        <v>1</v>
+      </c>
+      <c r="C18" s="48">
+        <v>45108</v>
+      </c>
+      <c r="D18" s="46">
+        <v>10000</v>
+      </c>
+      <c r="E18" s="52">
+        <f t="shared" si="0"/>
+        <v>138000</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="38"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23">
+        <v>2</v>
+      </c>
+      <c r="C19" s="48">
+        <v>45109</v>
+      </c>
+      <c r="D19" s="46">
+        <v>6000</v>
+      </c>
+      <c r="E19" s="52">
+        <f t="shared" si="0"/>
+        <v>144000</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="38"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23">
+        <v>3</v>
+      </c>
+      <c r="C20" s="48">
+        <v>45111</v>
+      </c>
+      <c r="D20" s="46">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="52">
+        <f t="shared" si="0"/>
+        <v>148000</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="38"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23">
+        <v>4</v>
+      </c>
+      <c r="C21" s="48">
+        <v>45131</v>
+      </c>
+      <c r="D21" s="46">
+        <v>30000</v>
+      </c>
+      <c r="E21" s="51">
+        <f t="shared" si="0"/>
+        <v>178000</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="49">
+        <f>SUM(D18:D21)</f>
+        <v>50000</v>
+      </c>
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="52">
+        <f t="shared" si="0"/>
+        <v>178000</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="38"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="48">
+        <v>45139</v>
+      </c>
+      <c r="D23" s="46">
+        <v>30000</v>
+      </c>
+      <c r="E23" s="52">
+        <f t="shared" si="0"/>
+        <v>208000</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23">
+        <v>2</v>
+      </c>
+      <c r="C24" s="48">
+        <v>45147</v>
+      </c>
+      <c r="D24" s="46">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="52">
+        <f t="shared" si="0"/>
+        <v>209000</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23">
+        <v>3</v>
+      </c>
+      <c r="C25" s="48">
+        <v>45147</v>
+      </c>
+      <c r="D25" s="46">
+        <v>1500</v>
+      </c>
+      <c r="E25" s="52">
+        <f t="shared" si="0"/>
+        <v>210500</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23">
+        <v>4</v>
+      </c>
+      <c r="C26" s="48">
+        <v>45148</v>
+      </c>
+      <c r="D26" s="46">
+        <v>11500</v>
+      </c>
+      <c r="E26" s="51">
+        <f t="shared" si="0"/>
+        <v>222000</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="23"/>
+      <c r="I26" s="49">
+        <f>SUM(D23:D26)</f>
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="52">
+        <f t="shared" si="0"/>
+        <v>222000</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="23">
+        <v>1</v>
+      </c>
+      <c r="C28" s="48">
+        <v>45177</v>
+      </c>
+      <c r="D28" s="46">
+        <v>50000</v>
+      </c>
+      <c r="E28" s="52">
+        <f t="shared" si="0"/>
+        <v>272000</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23">
+        <v>2</v>
+      </c>
+      <c r="C29" s="48">
+        <v>45181</v>
+      </c>
+      <c r="D29" s="46">
+        <v>20000</v>
+      </c>
+      <c r="E29" s="52">
+        <f t="shared" si="0"/>
+        <v>292000</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23">
+        <v>3</v>
+      </c>
+      <c r="C30" s="48">
+        <v>45185</v>
+      </c>
+      <c r="D30" s="46">
+        <v>30000</v>
+      </c>
+      <c r="E30" s="52">
+        <f t="shared" si="0"/>
+        <v>322000</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23">
+        <v>4</v>
+      </c>
+      <c r="C31" s="48">
+        <v>45194</v>
+      </c>
+      <c r="D31" s="46">
+        <v>50000</v>
+      </c>
+      <c r="E31" s="52">
+        <f t="shared" si="0"/>
+        <v>372000</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23">
+        <v>5</v>
+      </c>
+      <c r="C32" s="48">
+        <v>45195</v>
+      </c>
+      <c r="D32" s="46">
+        <v>50000</v>
+      </c>
+      <c r="E32" s="51">
+        <f t="shared" si="0"/>
+        <v>422000</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="49">
+        <f>SUM(D28:D32)</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="52">
+        <f t="shared" si="0"/>
+        <v>422000</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="23">
+        <v>1</v>
+      </c>
+      <c r="C34" s="48">
+        <v>45209</v>
+      </c>
+      <c r="D34" s="46">
+        <v>50000</v>
+      </c>
+      <c r="E34" s="51">
+        <f t="shared" si="0"/>
+        <v>472000</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="23"/>
+      <c r="I34" s="49">
+        <f>SUM(D34)</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" s="51">
+        <f>SUM(I34,I32,I26,I21,I16)</f>
+        <v>472000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A2336E-B0A5-44DD-9F07-A742F2A6432A}">
+  <dimension ref="A1:K38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="38"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1</v>
+      </c>
+      <c r="C6" s="48">
+        <v>45081</v>
+      </c>
+      <c r="D6" s="46">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="46">
+        <f>SUM(D6,E5)</f>
+        <v>10000</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23">
+        <v>2</v>
+      </c>
+      <c r="C7" s="48">
+        <v>45083</v>
+      </c>
+      <c r="D7" s="46">
+        <v>5000</v>
+      </c>
+      <c r="E7" s="46">
+        <f t="shared" ref="E7:E36" si="0">SUM(D7,E6)</f>
+        <v>15000</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="38"/>
+      <c r="B8" s="23">
+        <v>3</v>
+      </c>
+      <c r="C8" s="48">
+        <v>45094</v>
+      </c>
+      <c r="D8" s="46">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="46">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23">
+        <v>4</v>
+      </c>
+      <c r="C9" s="48">
+        <v>45095</v>
+      </c>
+      <c r="D9" s="46">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="46">
+        <f t="shared" si="0"/>
+        <v>21000</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23">
+        <v>5</v>
+      </c>
+      <c r="C10" s="48">
+        <v>45095</v>
+      </c>
+      <c r="D10" s="46">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="46">
+        <f t="shared" si="0"/>
+        <v>26000</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23">
+        <v>6</v>
+      </c>
+      <c r="C11" s="48">
+        <v>45096</v>
+      </c>
+      <c r="D11" s="46">
+        <v>8000</v>
+      </c>
+      <c r="E11" s="46">
+        <f t="shared" si="0"/>
+        <v>34000</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23">
+        <v>7</v>
+      </c>
+      <c r="C12" s="48">
+        <v>45103</v>
+      </c>
+      <c r="D12" s="46">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="46">
+        <f t="shared" si="0"/>
+        <v>39000</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23">
+        <v>8</v>
+      </c>
+      <c r="C13" s="48">
+        <v>45104</v>
+      </c>
+      <c r="D13" s="46">
+        <v>15000</v>
+      </c>
+      <c r="E13" s="46">
+        <f t="shared" si="0"/>
+        <v>54000</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
+      <c r="B14" s="23">
+        <v>9</v>
+      </c>
+      <c r="C14" s="48">
+        <v>45105</v>
+      </c>
+      <c r="D14" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="46">
+        <f t="shared" si="0"/>
+        <v>56000</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23">
+        <v>10</v>
+      </c>
+      <c r="C15" s="48">
+        <v>45106</v>
+      </c>
+      <c r="D15" s="46">
+        <v>10000</v>
+      </c>
+      <c r="E15" s="46">
+        <f t="shared" si="0"/>
+        <v>66000</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23">
+        <v>11</v>
+      </c>
+      <c r="C16" s="48">
+        <v>45107</v>
+      </c>
+      <c r="D16" s="46">
+        <v>20000</v>
+      </c>
+      <c r="E16" s="54">
+        <f t="shared" si="0"/>
+        <v>86000</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="49">
+        <f>SUM(D6:D16)</f>
+        <v>86000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46">
+        <f t="shared" si="0"/>
+        <v>86000</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="23">
+        <v>1</v>
+      </c>
+      <c r="C18" s="48">
+        <v>45113</v>
+      </c>
+      <c r="D18" s="46">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="46">
+        <f t="shared" si="0"/>
+        <v>91000</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23">
+        <v>2</v>
+      </c>
+      <c r="C19" s="48">
+        <v>45115</v>
+      </c>
+      <c r="D19" s="46">
+        <v>2500</v>
+      </c>
+      <c r="E19" s="46">
+        <f t="shared" si="0"/>
+        <v>93500</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23">
+        <v>3</v>
+      </c>
+      <c r="C20" s="48">
+        <v>45111</v>
+      </c>
+      <c r="D20" s="46">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="46">
+        <f t="shared" si="0"/>
+        <v>94500</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23">
+        <v>4</v>
+      </c>
+      <c r="C21" s="48">
+        <v>45117</v>
+      </c>
+      <c r="D21" s="46">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="46">
+        <f t="shared" si="0"/>
+        <v>95500</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="44"/>
+      <c r="B22" s="23">
+        <v>5</v>
+      </c>
+      <c r="C22" s="48">
+        <v>45127</v>
+      </c>
+      <c r="D22" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="46">
+        <f t="shared" si="0"/>
+        <v>98500</v>
+      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="44"/>
+      <c r="B23" s="23">
+        <v>6</v>
+      </c>
+      <c r="C23" s="48">
+        <v>45122</v>
+      </c>
+      <c r="D23" s="46">
+        <v>5000</v>
+      </c>
+      <c r="E23" s="46">
+        <f t="shared" si="0"/>
+        <v>103500</v>
+      </c>
+      <c r="F23" s="44"/>
+      <c r="G23" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="44"/>
+      <c r="B24" s="23">
+        <v>7</v>
+      </c>
+      <c r="C24" s="48">
+        <v>45124</v>
+      </c>
+      <c r="D24" s="46">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="46">
+        <f t="shared" si="0"/>
+        <v>108500</v>
+      </c>
+      <c r="F24" s="44"/>
+      <c r="G24" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="44"/>
+      <c r="B25" s="23">
+        <v>8</v>
+      </c>
+      <c r="C25" s="48">
+        <v>45128</v>
+      </c>
+      <c r="D25" s="46">
+        <v>5000</v>
+      </c>
+      <c r="E25" s="46">
+        <f t="shared" si="0"/>
+        <v>113500</v>
+      </c>
+      <c r="F25" s="44"/>
+      <c r="G25" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="44"/>
+      <c r="B26" s="23">
+        <v>9</v>
+      </c>
+      <c r="C26" s="48">
+        <v>45131</v>
+      </c>
+      <c r="D26" s="46">
+        <v>10000</v>
+      </c>
+      <c r="E26" s="46">
+        <f t="shared" si="0"/>
+        <v>123500</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="44"/>
+      <c r="B27" s="23">
+        <v>10</v>
+      </c>
+      <c r="C27" s="48">
+        <v>45137</v>
+      </c>
+      <c r="D27" s="46">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="46">
+        <f t="shared" si="0"/>
+        <v>124500</v>
+      </c>
+      <c r="F27" s="44"/>
+      <c r="G27" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="23">
+        <v>11</v>
+      </c>
+      <c r="C28" s="48">
+        <v>45138</v>
+      </c>
+      <c r="D28" s="46">
+        <v>4000</v>
+      </c>
+      <c r="E28" s="54">
+        <f t="shared" si="0"/>
+        <v>128500</v>
+      </c>
+      <c r="F28" s="44"/>
+      <c r="G28" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="44"/>
+      <c r="I28" s="49">
+        <f>SUM(D18:D28)</f>
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="44"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46">
+        <f t="shared" si="0"/>
+        <v>128500</v>
+      </c>
+      <c r="F29" s="44"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="23">
+        <v>1</v>
+      </c>
+      <c r="C30" s="48">
+        <v>45141</v>
+      </c>
+      <c r="D30" s="46">
+        <v>3000</v>
+      </c>
+      <c r="E30" s="46">
+        <f t="shared" si="0"/>
+        <v>131500</v>
+      </c>
+      <c r="F30" s="44"/>
+      <c r="G30" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="44"/>
+      <c r="B31" s="23">
+        <v>2</v>
+      </c>
+      <c r="C31" s="48">
+        <v>45143</v>
+      </c>
+      <c r="D31" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E31" s="46">
+        <f t="shared" si="0"/>
+        <v>133500</v>
+      </c>
+      <c r="F31" s="44"/>
+      <c r="G31" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="44"/>
+      <c r="B32" s="23">
+        <v>3</v>
+      </c>
+      <c r="C32" s="48">
+        <v>45144</v>
+      </c>
+      <c r="D32" s="46">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="46">
+        <f t="shared" si="0"/>
+        <v>134500</v>
+      </c>
+      <c r="F32" s="44"/>
+      <c r="G32" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="44"/>
+      <c r="B33" s="23">
+        <v>4</v>
+      </c>
+      <c r="C33" s="48">
+        <v>45147</v>
+      </c>
+      <c r="D33" s="46">
+        <v>500</v>
+      </c>
+      <c r="E33" s="46">
+        <f t="shared" si="0"/>
+        <v>135000</v>
+      </c>
+      <c r="F33" s="44"/>
+      <c r="G33" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="44"/>
+      <c r="B34" s="23">
+        <v>5</v>
+      </c>
+      <c r="C34" s="48">
+        <v>45148</v>
+      </c>
+      <c r="D34" s="46">
+        <v>500</v>
+      </c>
+      <c r="E34" s="46">
+        <f t="shared" si="0"/>
+        <v>135500</v>
+      </c>
+      <c r="F34" s="44"/>
+      <c r="G34" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="44"/>
+      <c r="B35" s="23">
+        <v>6</v>
+      </c>
+      <c r="C35" s="48">
+        <v>45150</v>
+      </c>
+      <c r="D35" s="46">
+        <v>500</v>
+      </c>
+      <c r="E35" s="46">
+        <f t="shared" si="0"/>
+        <v>136000</v>
+      </c>
+      <c r="F35" s="44"/>
+      <c r="G35" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="44"/>
+      <c r="B36" s="23">
+        <v>7</v>
+      </c>
+      <c r="C36" s="48">
+        <v>45152</v>
+      </c>
+      <c r="D36" s="46">
+        <v>500</v>
+      </c>
+      <c r="E36" s="54">
+        <f t="shared" si="0"/>
+        <v>136500</v>
+      </c>
+      <c r="F36" s="44"/>
+      <c r="G36" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="44"/>
+      <c r="I36" s="49">
+        <f>SUM(D30:D36)</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="44"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" s="25">
+        <f>SUM(I16,I28,I36)</f>
+        <v>136500</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1201,7 +3193,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScale="124" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1257,19 +3249,19 @@
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>1000</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <f>SUM(E2,D3)</f>
         <v>1000</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
@@ -1282,19 +3274,19 @@
         <v>45227</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>1000</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="25">
         <f t="shared" ref="E4:E15" si="0">SUM(E3,D4)</f>
         <v>2000</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="28">
+      <c r="I4" s="26">
         <f>SUM(D3:D4)</f>
         <v>2000</v>
       </c>
@@ -1303,32 +3295,32 @@
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="22">
+      <c r="D5" s="19"/>
+      <c r="E5" s="21">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="12">
         <v>45234</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>2000</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1341,14 +3333,14 @@
         <v>45240</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>5000</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1361,14 +3353,14 @@
         <v>45242</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>3000</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="7" t="s">
         <v>27</v>
       </c>
@@ -1381,14 +3373,14 @@
         <v>45248</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>600</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <f t="shared" si="0"/>
         <v>12600</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="7" t="s">
         <v>28</v>
       </c>
@@ -1401,14 +3393,14 @@
         <v>45252</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>2000</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <f t="shared" si="0"/>
         <v>14600</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="7" t="s">
         <v>9</v>
       </c>
@@ -1421,19 +3413,19 @@
         <v>45256</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>2000</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="25">
         <f t="shared" si="0"/>
         <v>16600</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="28">
+      <c r="I11" s="26">
         <f>SUM(D6:D11)</f>
         <v>14600</v>
       </c>
@@ -1442,32 +3434,32 @@
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="22">
+      <c r="D12" s="19"/>
+      <c r="E12" s="21">
         <f t="shared" si="0"/>
         <v>16600</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="12">
         <v>45266</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>2000</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="21">
         <f t="shared" si="0"/>
         <v>18600</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="7" t="s">
         <v>9</v>
       </c>
@@ -1480,14 +3472,14 @@
         <v>45273</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>5000</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="21">
         <f t="shared" si="0"/>
         <v>23600</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="7" t="s">
         <v>9</v>
       </c>
@@ -1500,19 +3492,19 @@
         <v>45275</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>5000</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="27">
         <f t="shared" si="0"/>
         <v>28600</v>
       </c>
-      <c r="F15" s="22"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="28">
+      <c r="I15" s="26">
         <f>SUM(D13:D15)</f>
         <v>12000</v>
       </c>
@@ -1536,10 +3528,10 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="27">
         <f>SUM(I15,I11,I4)</f>
         <v>28600</v>
       </c>
@@ -1554,8 +3546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B7064F-C9CE-420B-BC66-E070D92506DF}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScale="123" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A4" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1607,20 +3599,20 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="23">
         <v>1</v>
       </c>
       <c r="C3" s="12">
         <v>45135</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>1000</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <f>SUM(F2,E3)</f>
         <v>1000</v>
       </c>
@@ -1633,17 +3625,17 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>2</v>
       </c>
       <c r="C4" s="12">
         <v>45138</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>1500</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="27">
         <f t="shared" ref="F4:F18" si="0">SUM(F3,E4)</f>
         <v>2500</v>
       </c>
@@ -1652,18 +3644,18 @@
         <v>30</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="28">
+      <c r="J4" s="26">
         <f>SUM(E3,E4)</f>
         <v>2500</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="24"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
@@ -1673,20 +3665,20 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>1</v>
       </c>
       <c r="C6" s="12">
         <v>45141</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>500</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
@@ -1699,17 +3691,17 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>2</v>
       </c>
       <c r="C7" s="12">
         <v>45143</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>2000</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
@@ -1722,17 +3714,17 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>3</v>
       </c>
       <c r="C8" s="12">
         <v>45144</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>5000</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
@@ -1745,17 +3737,17 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>4</v>
       </c>
       <c r="C9" s="12">
         <v>45147</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>5000</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
@@ -1768,17 +3760,17 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <v>5</v>
       </c>
       <c r="C10" s="12">
         <v>45149</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>1500</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <f t="shared" si="0"/>
         <v>16500</v>
       </c>
@@ -1791,17 +3783,17 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <v>6</v>
       </c>
       <c r="C11" s="12">
         <v>45150</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>5000</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <f t="shared" si="0"/>
         <v>21500</v>
       </c>
@@ -1814,17 +3806,17 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <v>7</v>
       </c>
       <c r="C12" s="12">
         <v>45152</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <v>1000</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <f t="shared" si="0"/>
         <v>22500</v>
       </c>
@@ -1837,17 +3829,17 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <v>8</v>
       </c>
       <c r="C13" s="12">
         <v>45155</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>2000</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <f>SUM(F12,E13)</f>
         <v>24500</v>
       </c>
@@ -1860,17 +3852,17 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>9</v>
       </c>
       <c r="C14" s="12">
         <v>45161</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>4000</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <f t="shared" si="0"/>
         <v>28500</v>
       </c>
@@ -1883,17 +3875,17 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>10</v>
       </c>
       <c r="C15" s="12">
         <v>45163</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>3000</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="19">
         <f t="shared" si="0"/>
         <v>31500</v>
       </c>
@@ -1906,17 +3898,17 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="24">
+      <c r="B16" s="23">
         <v>11</v>
       </c>
       <c r="C16" s="12">
         <v>45167</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>5000</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="19">
         <f t="shared" si="0"/>
         <v>36500</v>
       </c>
@@ -1929,17 +3921,17 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>12</v>
       </c>
       <c r="C17" s="12">
         <v>45168</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>6000</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <f t="shared" si="0"/>
         <v>42500</v>
       </c>
@@ -1952,17 +3944,17 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>13</v>
       </c>
       <c r="C18" s="12">
         <v>45154</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <v>4000</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="27">
         <f t="shared" si="0"/>
         <v>46500</v>
       </c>
@@ -1971,7 +3963,7 @@
         <v>30</v>
       </c>
       <c r="I18" s="7"/>
-      <c r="J18" s="23">
+      <c r="J18" s="22">
         <f>SUM(E6:E18)</f>
         <v>44000</v>
       </c>
@@ -1997,35 +3989,16 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="39" t="s">
+      <c r="I20" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="25">
         <f>SUM(J4,J18)</f>
         <v>46500</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-    </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
+      <c r="E22" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2033,51 +4006,63 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C10B9CF-051B-476D-A6B1-DE9A750E6157}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78467B15-760A-4743-BEC7-8A32E5C0EBC1}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="A8" zoomScale="98" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="31" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" customWidth="1"/>
     <col min="6" max="6" width="4.5546875" customWidth="1"/>
     <col min="8" max="8" width="13.21875" customWidth="1"/>
     <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="42"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="35"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -2087,7 +4072,7 @@
       <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -2104,31 +4089,31 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="20"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>1</v>
       </c>
       <c r="C7" s="12">
         <v>45150</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>1500</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="25">
         <f>SUM(D7)</f>
         <v>1500</v>
       </c>
@@ -2139,18 +4124,18 @@
       <c r="H7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <f>SUM(D7)</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="22">
-        <f>SUM(E7,D8)</f>
+      <c r="D8" s="19"/>
+      <c r="E8" s="21">
+        <f t="shared" ref="E8:E23" si="0">SUM(E7,D8)</f>
         <v>1500</v>
       </c>
       <c r="F8" s="7"/>
@@ -2158,21 +4143,21 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>1</v>
       </c>
       <c r="C9" s="12">
         <v>45173</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>4000</v>
       </c>
-      <c r="E9" s="22">
-        <f>SUM(E8,D9)</f>
+      <c r="E9" s="21">
+        <f t="shared" si="0"/>
         <v>5500</v>
       </c>
       <c r="F9" s="7"/>
@@ -2182,19 +4167,19 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <v>2</v>
       </c>
       <c r="C10" s="12">
         <v>45175</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>2000</v>
       </c>
-      <c r="E10" s="22">
-        <f>SUM(E9,D10)</f>
+      <c r="E10" s="21">
+        <f t="shared" si="0"/>
         <v>7500</v>
       </c>
       <c r="F10" s="7"/>
@@ -2206,19 +4191,19 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <v>3</v>
       </c>
       <c r="C11" s="12">
         <v>45177</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>4000</v>
       </c>
-      <c r="E11" s="22">
-        <f>SUM(E10,D11)</f>
+      <c r="E11" s="21">
+        <f t="shared" si="0"/>
         <v>11500</v>
       </c>
       <c r="F11" s="7"/>
@@ -2227,21 +4212,20 @@
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="K11" s="45"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <v>4</v>
       </c>
       <c r="C12" s="12">
         <v>45177</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>1000</v>
       </c>
-      <c r="E12" s="22">
-        <f>SUM(E11,D12)</f>
+      <c r="E12" s="21">
+        <f t="shared" si="0"/>
         <v>12500</v>
       </c>
       <c r="F12" s="7"/>
@@ -2253,19 +4237,19 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <v>5</v>
       </c>
       <c r="C13" s="12">
         <v>45183</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>1000</v>
       </c>
-      <c r="E13" s="22">
-        <f>SUM(E12,D13)</f>
+      <c r="E13" s="21">
+        <f t="shared" si="0"/>
         <v>13500</v>
       </c>
       <c r="F13" s="7"/>
@@ -2275,19 +4259,19 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>6</v>
       </c>
       <c r="C14" s="12">
         <v>45189</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>2000</v>
       </c>
-      <c r="E14" s="22">
-        <f>SUM(E13,D14)</f>
+      <c r="E14" s="21">
+        <f t="shared" si="0"/>
         <v>15500</v>
       </c>
       <c r="F14" s="7"/>
@@ -2297,19 +4281,19 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>7</v>
       </c>
       <c r="C15" s="12">
         <v>45189</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>3000</v>
       </c>
-      <c r="E15" s="22">
-        <f>SUM(E14,D15)</f>
+      <c r="E15" s="21">
+        <f t="shared" si="0"/>
         <v>18500</v>
       </c>
       <c r="F15" s="7"/>
@@ -2319,19 +4303,19 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="24">
+      <c r="B16" s="23">
         <v>8</v>
       </c>
       <c r="C16" s="12">
         <v>45192</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <v>3000</v>
       </c>
-      <c r="E16" s="22">
-        <f>SUM(E15,D16)</f>
+      <c r="E16" s="21">
+        <f t="shared" si="0"/>
         <v>21500</v>
       </c>
       <c r="F16" s="7"/>
@@ -2343,17 +4327,17 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>9</v>
       </c>
       <c r="C17" s="12">
         <v>45195</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <v>2000</v>
       </c>
-      <c r="E17" s="22">
-        <f>SUM(E16,D17)</f>
+      <c r="E17" s="21">
+        <f t="shared" si="0"/>
         <v>23500</v>
       </c>
       <c r="F17" s="7"/>
@@ -2365,17 +4349,17 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>10</v>
       </c>
       <c r="C18" s="12">
         <v>45196</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <v>1500</v>
       </c>
-      <c r="E18" s="22">
-        <f>SUM(E17,D18)</f>
+      <c r="E18" s="21">
+        <f t="shared" si="0"/>
         <v>25000</v>
       </c>
       <c r="F18" s="7"/>
@@ -2387,17 +4371,17 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="24">
+      <c r="B19" s="23">
         <v>11</v>
       </c>
       <c r="C19" s="12">
         <v>45198</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="19">
         <v>10000</v>
       </c>
-      <c r="E19" s="27">
-        <f>SUM(E18,D19)</f>
+      <c r="E19" s="25">
+        <f t="shared" si="0"/>
         <v>35000</v>
       </c>
       <c r="F19" s="7"/>
@@ -2405,18 +4389,18 @@
         <v>9</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="28">
+      <c r="I19" s="26">
         <f>SUM(D9:D19)</f>
         <v>33500</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="24"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="22">
-        <f>SUM(E19,D20)</f>
+      <c r="D20" s="19"/>
+      <c r="E20" s="21">
+        <f t="shared" si="0"/>
         <v>35000</v>
       </c>
       <c r="F20" s="7"/>
@@ -2425,20 +4409,20 @@
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="23">
         <v>1</v>
       </c>
       <c r="C21" s="12">
         <v>45208</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>2000</v>
       </c>
-      <c r="E21" s="22">
-        <f>SUM(E20,D21)</f>
+      <c r="E21" s="21">
+        <f t="shared" si="0"/>
         <v>37000</v>
       </c>
       <c r="F21" s="7"/>
@@ -2450,17 +4434,17 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="24">
+      <c r="B22" s="23">
         <v>2</v>
       </c>
       <c r="C22" s="12">
         <v>45212</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <v>5000</v>
       </c>
-      <c r="E22" s="22">
-        <f>SUM(E21,D22)</f>
+      <c r="E22" s="21">
+        <f t="shared" si="0"/>
         <v>42000</v>
       </c>
       <c r="F22" s="7"/>
@@ -2472,17 +4456,17 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="24">
+      <c r="B23" s="23">
         <v>3</v>
       </c>
       <c r="C23" s="12">
         <v>45218</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="19">
         <v>500</v>
       </c>
-      <c r="E23" s="27">
-        <f>SUM(E22,D23)</f>
+      <c r="E23" s="25">
+        <f t="shared" si="0"/>
         <v>42500</v>
       </c>
       <c r="F23" s="7"/>
@@ -2490,7 +4474,7 @@
         <v>30</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="23">
+      <c r="I23" s="22">
         <f>SUM(D21:D23)</f>
         <v>7500</v>
       </c>
@@ -2499,8 +4483,8 @@
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="22"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -2510,55 +4494,55 @@
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="22"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="39" t="s">
+      <c r="H25" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="25">
         <f>SUM(I23,I19,I7)</f>
         <v>42500</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E26" s="38"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E27" s="38"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E28" s="38"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E29" s="46">
+      <c r="E29" s="37">
         <v>12500</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E30" s="38"/>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E31" s="38"/>
+      <c r="E31" s="32"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E32" s="38"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="38"/>
+      <c r="E33" s="32"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="38"/>
+      <c r="E34" s="32"/>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="38"/>
+      <c r="E35" s="32"/>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="38"/>
+      <c r="E36" s="32"/>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="38"/>
+      <c r="E37" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2568,7 +4552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BEB6D3-D10C-4FB8-A08F-CDF11286B009}">
   <dimension ref="A1:L9"/>
   <sheetViews>
@@ -2582,7 +4566,7 @@
     <col min="2" max="2" width="7.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.109375" customWidth="1"/>
     <col min="7" max="7" width="3.88671875" customWidth="1"/>
     <col min="10" max="10" width="10.44140625" customWidth="1"/>
@@ -2604,7 +4588,7 @@
         <v>26</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2622,20 +4606,20 @@
       <c r="L1" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="23">
         <v>1</v>
       </c>
       <c r="C3" s="12">
         <v>45249</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>10000</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <f>SUM(F2,E3)</f>
         <v>10000</v>
       </c>
@@ -2649,17 +4633,17 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>2</v>
       </c>
       <c r="C4" s="12">
         <v>45251</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>10000</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <f t="shared" ref="F4:F7" si="0">SUM(F3,E4)</f>
         <v>20000</v>
       </c>
@@ -2673,17 +4657,17 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>3</v>
       </c>
       <c r="C5" s="12">
         <v>45254</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>20000</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="25">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
@@ -2693,7 +4677,7 @@
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="23">
+      <c r="K5" s="22">
         <f>SUM(E3:E5)</f>
         <v>40000</v>
       </c>
@@ -2703,8 +4687,8 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="22">
+      <c r="E6" s="19"/>
+      <c r="F6" s="21">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
@@ -2712,23 +4696,23 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="22"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>1</v>
       </c>
       <c r="C7" s="12">
         <v>45267</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>50000</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="25">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
@@ -2738,16 +4722,16 @@
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="23">
+      <c r="K7" s="22">
         <f>SUM(E7)</f>
         <v>50000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="25">
         <f>SUM(K5,K7)</f>
         <v>90000</v>
       </c>
@@ -2757,12 +4741,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C6A9DA-3D9C-4C63-ADF9-4D00FBC20279}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="115" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2782,45 +4766,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -2833,10 +4817,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="8" t="s">
         <v>36</v>
       </c>
@@ -2860,15 +4844,15 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="11">
@@ -2878,15 +4862,15 @@
         <v>45172</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>50000</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="22">
+      <c r="F7" s="19"/>
+      <c r="G7" s="21">
         <f>SUM(G6,E7)</f>
         <v>50000</v>
       </c>
-      <c r="H7" s="22"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="7" t="s">
         <v>30</v>
       </c>
@@ -2903,15 +4887,15 @@
         <v>45183</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>10000</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="22">
+      <c r="F8" s="19"/>
+      <c r="G8" s="21">
         <f t="shared" ref="G8:G29" si="0">SUM(G7,E8)</f>
         <v>60000</v>
       </c>
-      <c r="H8" s="22"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="7" t="s">
         <v>30</v>
       </c>
@@ -2928,15 +4912,15 @@
         <v>45187</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>10000</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="22">
+      <c r="F9" s="19"/>
+      <c r="G9" s="21">
         <f>SUM(G8,E9)</f>
         <v>70000</v>
       </c>
-      <c r="H9" s="22"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="7" t="s">
         <v>30</v>
       </c>
@@ -2953,15 +4937,15 @@
         <v>45188</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>20000</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="22">
+      <c r="F10" s="19"/>
+      <c r="G10" s="21">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
-      <c r="H10" s="22"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="7" t="s">
         <v>30</v>
       </c>
@@ -2978,15 +4962,15 @@
         <v>45190</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>50000</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="22">
+      <c r="F11" s="19"/>
+      <c r="G11" s="21">
         <f t="shared" si="0"/>
         <v>140000</v>
       </c>
-      <c r="H11" s="22"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="7" t="s">
         <v>30</v>
       </c>
@@ -3003,21 +4987,21 @@
         <v>45193</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <v>2000</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="25">
+      <c r="F12" s="19"/>
+      <c r="G12" s="24">
         <f>SUM(G11,E12)</f>
         <v>142000</v>
       </c>
-      <c r="H12" s="22"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="23">
+      <c r="L12" s="22">
         <f>SUM(E7:E12)</f>
         <v>142000</v>
       </c>
@@ -3029,18 +5013,18 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <f t="shared" si="0"/>
         <v>142000</v>
       </c>
-      <c r="H13" s="22"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="11">
@@ -3050,15 +5034,15 @@
         <v>45208</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>20000</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="22">
+      <c r="F14" s="19"/>
+      <c r="G14" s="21">
         <f t="shared" si="0"/>
         <v>162000</v>
       </c>
-      <c r="H14" s="22"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="7" t="s">
         <v>30</v>
       </c>
@@ -3075,15 +5059,15 @@
         <v>45212</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>2500</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="22">
+      <c r="F15" s="19"/>
+      <c r="G15" s="21">
         <f t="shared" si="0"/>
         <v>164500</v>
       </c>
-      <c r="H15" s="22"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="7" t="s">
         <v>30</v>
       </c>
@@ -3102,15 +5086,15 @@
         <v>45212</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>40000</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="22">
+      <c r="F16" s="19"/>
+      <c r="G16" s="21">
         <f t="shared" si="0"/>
         <v>204500</v>
       </c>
-      <c r="H16" s="22"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="7" t="s">
         <v>30</v>
       </c>
@@ -3127,15 +5111,15 @@
         <v>45215</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>40000</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="22">
+      <c r="F17" s="19"/>
+      <c r="G17" s="21">
         <f t="shared" si="0"/>
         <v>244500</v>
       </c>
-      <c r="H17" s="22"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="7" t="s">
         <v>30</v>
       </c>
@@ -3152,15 +5136,15 @@
         <v>45219</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <v>20000</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="22">
+      <c r="F18" s="19"/>
+      <c r="G18" s="21">
         <f>SUM(G17,E18)</f>
         <v>264500</v>
       </c>
-      <c r="H18" s="22"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="7" t="s">
         <v>30</v>
       </c>
@@ -3177,15 +5161,15 @@
         <v>45222</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="20">
+      <c r="E19" s="19">
         <v>10000</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="22">
+      <c r="F19" s="19"/>
+      <c r="G19" s="21">
         <f t="shared" si="0"/>
         <v>274500</v>
       </c>
-      <c r="H19" s="22"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="7" t="s">
         <v>30</v>
       </c>
@@ -3202,15 +5186,15 @@
         <v>45224</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="20">
+      <c r="E20" s="19">
         <v>10000</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="22">
+      <c r="F20" s="19"/>
+      <c r="G20" s="21">
         <f t="shared" si="0"/>
         <v>284500</v>
       </c>
-      <c r="H20" s="22"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="7" t="s">
         <v>30</v>
       </c>
@@ -3227,15 +5211,15 @@
         <v>45224</v>
       </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="20">
+      <c r="E21" s="19">
         <v>16000</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="25">
+      <c r="F21" s="19"/>
+      <c r="G21" s="24">
         <f t="shared" si="0"/>
         <v>300500</v>
       </c>
-      <c r="H21" s="22"/>
+      <c r="H21" s="21"/>
       <c r="I21" s="7" t="s">
         <v>30</v>
       </c>
@@ -3243,7 +5227,7 @@
         <v>39</v>
       </c>
       <c r="K21" s="7"/>
-      <c r="L21" s="23">
+      <c r="L21" s="22">
         <f>SUM(E14:E21)</f>
         <v>158500</v>
       </c>
@@ -3255,18 +5239,18 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="22">
+      <c r="G22" s="21">
         <f t="shared" si="0"/>
         <v>300500</v>
       </c>
-      <c r="H22" s="22"/>
+      <c r="H22" s="21"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="11">
@@ -3276,15 +5260,15 @@
         <v>45238</v>
       </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="20">
+      <c r="E23" s="19">
         <v>40000</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="22">
+      <c r="F23" s="19"/>
+      <c r="G23" s="21">
         <f t="shared" si="0"/>
         <v>340500</v>
       </c>
-      <c r="H23" s="22"/>
+      <c r="H23" s="21"/>
       <c r="I23" s="7" t="s">
         <v>30</v>
       </c>
@@ -3301,15 +5285,15 @@
         <v>45239</v>
       </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="20">
+      <c r="E24" s="19">
         <v>10000</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="22">
+      <c r="F24" s="19"/>
+      <c r="G24" s="21">
         <f t="shared" si="0"/>
         <v>350500</v>
       </c>
-      <c r="H24" s="22"/>
+      <c r="H24" s="21"/>
       <c r="I24" s="7" t="s">
         <v>30</v>
       </c>
@@ -3326,21 +5310,21 @@
         <v>45240</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="20">
+      <c r="E25" s="19">
         <v>100000</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="25">
+      <c r="F25" s="19"/>
+      <c r="G25" s="24">
         <f t="shared" si="0"/>
         <v>450500</v>
       </c>
-      <c r="H25" s="22"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="23">
+      <c r="L25" s="22">
         <f>SUM(E23:E25)</f>
         <v>150000</v>
       </c>
@@ -3352,18 +5336,18 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="22">
+      <c r="G26" s="21">
         <f t="shared" si="0"/>
         <v>450500</v>
       </c>
-      <c r="H26" s="22"/>
+      <c r="H26" s="21"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="11">
@@ -3373,15 +5357,15 @@
         <v>45275</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="20">
+      <c r="E27" s="19">
         <v>50000</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="22">
+      <c r="F27" s="19"/>
+      <c r="G27" s="21">
         <f t="shared" si="0"/>
         <v>500500</v>
       </c>
-      <c r="H27" s="22"/>
+      <c r="H27" s="21"/>
       <c r="I27" s="7" t="s">
         <v>30</v>
       </c>
@@ -3398,15 +5382,15 @@
         <v>45278</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="20">
+      <c r="E28" s="19">
         <v>50000</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="22">
+      <c r="F28" s="19"/>
+      <c r="G28" s="21">
         <f t="shared" si="0"/>
         <v>550500</v>
       </c>
-      <c r="H28" s="22"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="7" t="s">
         <v>30</v>
       </c>
@@ -3423,30 +5407,30 @@
         <v>45284</v>
       </c>
       <c r="D29" s="7"/>
-      <c r="E29" s="20">
+      <c r="E29" s="19">
         <v>150000</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="25">
+      <c r="F29" s="19"/>
+      <c r="G29" s="24">
         <f t="shared" si="0"/>
         <v>700500</v>
       </c>
-      <c r="H29" s="22"/>
+      <c r="H29" s="21"/>
       <c r="I29" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="23">
+      <c r="L29" s="22">
         <f>SUM(E27:E29)</f>
         <v>250000</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K32" s="17" t="s">
+      <c r="K32" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="L32" s="18">
+      <c r="L32" s="17">
         <f>SUM(L12,L21,L25,L29)</f>
         <v>700500</v>
       </c>
@@ -3459,12 +5443,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A207BE0-E0EF-4494-98E1-98793EF198EE}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="128" workbookViewId="0">
-      <selection activeCell="L5" sqref="A5:L5"/>
+    <sheetView topLeftCell="A5" zoomScale="128" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3475,56 +5459,53 @@
     <col min="6" max="6" width="4.6640625" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -3535,10 +5516,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="8" t="s">
         <v>36</v>
       </c>
@@ -3549,12 +5530,11 @@
       <c r="J5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -3566,10 +5546,9 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="11">
@@ -3579,11 +5558,11 @@
         <v>45146</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>40000</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <f>SUM(G6,E7)</f>
         <v>40000</v>
       </c>
@@ -3595,9 +5574,8 @@
         <v>45</v>
       </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="11">
         <v>2</v>
@@ -3606,11 +5584,11 @@
         <v>45148</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>11000</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <f t="shared" ref="G8:G20" si="0">SUM(G7,E8)</f>
         <v>51000</v>
       </c>
@@ -3620,9 +5598,8 @@
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="11">
         <v>3</v>
@@ -3631,11 +5608,11 @@
         <v>45152</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>35000</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <f t="shared" si="0"/>
         <v>86000</v>
       </c>
@@ -3647,9 +5624,8 @@
         <v>47</v>
       </c>
       <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="11">
         <v>4</v>
@@ -3658,11 +5634,11 @@
         <v>45153</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>2000</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
         <f t="shared" si="0"/>
         <v>88000</v>
       </c>
@@ -3672,9 +5648,8 @@
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="11">
         <v>5</v>
@@ -3683,11 +5658,11 @@
         <v>45157</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>20000</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <f t="shared" si="0"/>
         <v>108000</v>
       </c>
@@ -3697,9 +5672,8 @@
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="11">
         <v>6</v>
@@ -3708,11 +5682,11 @@
         <v>45161</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <v>10000</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="22">
+      <c r="G12" s="21">
         <f t="shared" si="0"/>
         <v>118000</v>
       </c>
@@ -3722,9 +5696,8 @@
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="11">
         <v>7</v>
@@ -3733,11 +5706,11 @@
         <v>45162</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>30000</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <f t="shared" si="0"/>
         <v>148000</v>
       </c>
@@ -3747,9 +5720,8 @@
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="11">
         <v>8</v>
@@ -3758,11 +5730,11 @@
         <v>45166</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>100000</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="22">
+      <c r="G14" s="21">
         <f t="shared" si="0"/>
         <v>248000</v>
       </c>
@@ -3772,9 +5744,8 @@
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="11">
         <v>9</v>
@@ -3783,11 +5754,11 @@
         <v>45167</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>1800</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="27">
+      <c r="G15" s="25">
         <f t="shared" si="0"/>
         <v>249800</v>
       </c>
@@ -3798,20 +5769,19 @@
       <c r="J15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="23">
+      <c r="K15" s="22">
         <f>SUM(E7:E15)</f>
         <v>249800</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="22">
+      <c r="G16" s="21">
         <f t="shared" si="0"/>
         <v>249800</v>
       </c>
@@ -3819,10 +5789,9 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="11">
@@ -3832,11 +5801,11 @@
         <v>45179</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>10000</v>
       </c>
       <c r="F17" s="7"/>
-      <c r="G17" s="27">
+      <c r="G17" s="25">
         <f t="shared" si="0"/>
         <v>259800</v>
       </c>
@@ -3845,20 +5814,19 @@
         <v>30</v>
       </c>
       <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="23">
+      <c r="K17" s="22">
         <f>SUM(E17)</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="22">
+      <c r="G18" s="21">
         <f t="shared" si="0"/>
         <v>259800</v>
       </c>
@@ -3866,10 +5834,9 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="11">
@@ -3879,11 +5846,11 @@
         <v>45202</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="20">
+      <c r="E19" s="19">
         <v>50000</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="22">
+      <c r="G19" s="21">
         <f t="shared" si="0"/>
         <v>309800</v>
       </c>
@@ -3893,22 +5860,21 @@
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="24">
+      <c r="B20" s="23">
         <v>2</v>
       </c>
       <c r="C20" s="12">
         <v>45226</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="20">
+      <c r="E20" s="19">
         <v>50000</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="G20" s="27">
+      <c r="G20" s="25">
         <f t="shared" si="0"/>
         <v>359800</v>
       </c>
@@ -3919,27 +5885,485 @@
       <c r="J20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="23">
+      <c r="K20" s="22">
         <f>SUM(E19:E20)</f>
         <v>100000</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M23" s="14" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="N23" s="26">
-        <f>SUM(L15,L17,L20)</f>
+      <c r="K22" s="25">
+        <f>SUM(K15,K17,K20)</f>
         <v>359800</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="A1:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F14F616-97CE-4B94-B791-7B44C0368D25}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="19">
+        <v>5000</v>
+      </c>
+      <c r="E6" s="25">
+        <f>SUM(E5,D6)</f>
+        <v>5000</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="22">
+        <f>SUM(E6)</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="21">
+        <f t="shared" ref="E7:E20" si="0">SUM(E6,D7)</f>
+        <v>5000</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12">
+        <v>45216</v>
+      </c>
+      <c r="D8" s="19">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="12">
+        <v>45219</v>
+      </c>
+      <c r="D9" s="19">
+        <v>5000</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="19">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="21">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="19">
+        <v>5000</v>
+      </c>
+      <c r="E11" s="21">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="41"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="19">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="25">
+        <f t="shared" si="0"/>
+        <v>28000</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="22">
+        <f>SUM(D8:D12)</f>
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="21">
+        <f t="shared" si="0"/>
+        <v>28000</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12">
+        <v>45252</v>
+      </c>
+      <c r="D14" s="19">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="21">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12">
+        <v>45256</v>
+      </c>
+      <c r="D15" s="19">
+        <v>5000</v>
+      </c>
+      <c r="E15" s="21">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16" s="12">
+        <v>45260</v>
+      </c>
+      <c r="D16" s="19">
+        <v>5000</v>
+      </c>
+      <c r="E16" s="25">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="22">
+        <f>SUM(D14:D16)</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="21">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12">
+        <v>45269</v>
+      </c>
+      <c r="D18" s="19">
+        <v>4000</v>
+      </c>
+      <c r="E18" s="21">
+        <f t="shared" si="0"/>
+        <v>44000</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7">
+        <v>2</v>
+      </c>
+      <c r="C19" s="12">
+        <v>45270</v>
+      </c>
+      <c r="D19" s="19">
+        <v>1500</v>
+      </c>
+      <c r="E19" s="21">
+        <f t="shared" si="0"/>
+        <v>45500</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7">
+        <v>3</v>
+      </c>
+      <c r="C20" s="12">
+        <v>45271</v>
+      </c>
+      <c r="D20" s="19">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="25">
+        <f t="shared" si="0"/>
+        <v>46500</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="22">
+        <f>SUM(D18:D20)</f>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="25">
+        <f>SUM(I6,I12,I16,I20)</f>
+        <v>46500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E23" s="32"/>
+      <c r="G23" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
